--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,14 +1276,339 @@
           <t>홍범14조: 2차 갑오개혁</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20230225</t>
-        </is>
+      <c r="D34" t="n">
+        <v>20230225</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>재정 일원화 : 헌의6조</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>탁지부</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>05시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>대황제 폐하께서 갑오년 중흥(中興)의 기회를 맞아 자주독립의 기초를 확정하시고 새로이 경장(更張)하는 정령(政令)을 반포하실 때에 특히 한문과 한글을 같이 사용하여 공사 문서(公私文書)를 국한문으로 섞어 쓰라는 칙교(勅敎)를 내리셨다. 모든 관리가 이를 받들어 근래에 관보와 각 부군(府郡)의 훈령, 지령과 각 군(各郡)의 청원서, 보고서가 국한문으로 쓰였다. 이제 본사에서도 신문을 확장하려는 때를 맞아 국한문을 함께 쓰는 것은, 무엇보다도 대황제 폐하의 성칙(聖勅)을 따르기 위해서이며, 또한 옛글과 현재의 글을 함께 전하고 많은 사람들에게 읽히기 위함이다.- 「황성신문」 창간사 -</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>대한 매일 신보</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>황성신문</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>05시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>토문 감계사로 파견된 인물은 이중하(1886)이다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>이범윤</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>이중하</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>06시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>신채호 대한매일신보에 독사신론 연재</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1906년</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1908년</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>06시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>최치원</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>계림잡전</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>계월필경</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>06시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>조선이 청의 중재를 거치지 않고 직접 조러통상조약을 체결하였다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>조불수호통상조약</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>조러통상조약</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>06시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1880년대 홍재학은 ‘만언척사소’를 올려 개화 반대와 서양 문물 및 서적을 불태울 것을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>06시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>청의 연호를 쓰지 않고 개국 기년을 사용하였다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>대한국국제</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>06시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>인물을 쓰는데 문벌 및 지벌에 구애되지 말고, 선비를 두루 구하여 널리 인재를 등용한다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>06시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>06시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>원각사</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1895년</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1908년</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>06시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>나라의 우수한 젊은이들을 파견하여 외국의 문물을 익히게 할 것</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>06시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>문벌폐지, 신분제 폐지, 과부의 재가 허용, 칠반천인(신량역천) 처우 개선 등이 수용되었다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>홍범14조</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조: 1894년 동학농민운동</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20230227</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>06시 13분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,14 +1601,739 @@
           <t>폐정 개혁 12개조: 1894년 동학농민운동</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>20230227</t>
-        </is>
+      <c r="D47" t="n">
+        <v>20230227</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>06시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>청과 통상강화, 절약보다는 소비</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>박제가</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>경의선 철도개통</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1905년</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1906년</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>친일적 대동학회에 대항하여 대동교를 창시하였다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>정인보</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>박은식</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1906년 설립된 대한자강회는 고종 강제 퇴위 반대 운동을 전개, 군대 해산 반대, 일진회 반대 등의 활동을 하였으며 보안법(1907)의 적용을 받아 해체되었다</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>독립협회</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>대한자강회</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>재정 일원화 : 헌의6조</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>탁지아문</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>탁지부</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>제1조 국내의 육군을 친위와 진위 2종으로 나눈다</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>을미개혁: 1895년 월 ~ 1896년 2월</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>국립병원인 광제원이 설립되었다</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1885년</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1900년</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>조세나 세금을 부과하는 것과 경비를 지출하는 것은 모두 탁지아문에서 관할한다</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>헌의 6조</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁에서는 동학농민군의 청상과부의 재가 허용이라는 내용을 받아들여 과부의 재가를 허용하였다</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>대한자강회(1906~1907)는 고종 황제 퇴위 반대 운동을 전개하다가 보안법에 의해 강제 해체되었다</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>대한자강회</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>한성사범학교 개교</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1899년</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1895년</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1860년대 이항로는 척화주전론을 내세우며 『화서아언』을 지어 프랑스와 통상을 반대하였다</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>문벌폐지, 신분제 폐지, 과부의 재가 허용, 칠반천인(신량역천) 처우 개선 등이 수용되었다</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조: 1894년 동학농민운동</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>자유 상공업 발전을 꾀한다는 명분으로 보부상 단체인 상리국을 폐지하였다</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>을미개혁</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>교육입국조서를 반포하였다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>을미개혁</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>원각사</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1887년</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1908년</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>국립병원인 광제원이 설립되었다</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1906년</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1900년</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>반러운동을 적극적으로 전개하였다</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>대한자강회</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>독립협회</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>한전론, 영업전, 최소한도의 토지는 매매 금지(영업전 법으로 매매 금지)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>이익</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>신채호는 민족정신으로 낭가사상(숭무정신)을 중시하였다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>정인보</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>신채호</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>대한국 대황제는 육해군을 통솔하고 편제를 정하며 계엄과 해엄을 명한다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>광무개혁</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>대한국국제: 1899년, 대한제국</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>「자유를 위한 한국인의 투쟁」은 영국 런던 「데일리 메일」의 아시아 특파원 로버트 맥켄지가 구한말에 일본의 조선인 탄압과 만행을 기고한 것이다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>헐버트</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>로버트 맥켄지</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>『한성순보』는 1883년 간행된 우리나라 최초의 신문으로, 관보적 성격의 순한문 신문이었다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>황성신문</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>한성순보</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>지방의 군현제가 폐지되고 전국을 23부로 나누었다</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>을미개혁</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>나라의 우수한 젊은이들을 파견하여 외국의 문물을 익히게 할 것</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>헌의 6조</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>이만손</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>지방 관제를 빨리 개정하여 지방 관리의 직권을 제한한다</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>정부는 김윤식을 영선사로 삼아 학생과 기술자를 톈진에 파견하였다</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>민영환</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>보빙사절단(1883)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>민영익</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>20230307</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21시 11분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2326,14 +2326,689 @@
           <t>민영익</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>20230307</t>
-        </is>
+      <c r="D76" t="n">
+        <v>20230307</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>21시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>자유 상공업 발전을 꾀한다는 명분으로 보부상 단체인 상리국을 폐지하였다</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>법주사 팔상전</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>조선후기: 17세기 인조</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>옛날에 백성에는 네 가지 부류가 있었습니다. 이는 사농공상입니다. 사의 업은 오래되었습니다. 농공상의 일은 처음에 역시 성인의 견문과 생각에서 나왔고, 대대로 익힌 것을 전승하여 각기 자신의 학문이 있었습니다. …… 그러나 사의 학문은 실제로 농공상의 이치를 포괄하는 것이므로 세 가지 업은 반드시 사를 기다린 뒤에 완성됩니다. 일반적으로 이른바 농업에 힘쓰는 것이나, 상업을 유통시켜 공업에 혜택을 준다고 했을 때 그 힘쓰는 것이나, 상업을 유통시켜 공업에 혜택을 준다고 했을 때 그 힘쓰게 하고 유통시키고 혜택을 주게 하는 것은 사가 아니라면 누가 하겠습니까?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>나라의 우수한 젊은이들을 파견하여 외국의 문물을 익히게 할 것</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>헌의 6조</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>『역학도해』는 김석문이 저술한 것으로 우리나라에서 처음으로 지전설을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>이수광</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>김석문</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>대한제국은 1902년 이범윤을 간도시찰원으로 파견하였다</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>이중하</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>이범윤</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>제1조 국내의 육군을 친위와 진위 2종으로 나눈다</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>을미개혁: 1895년 월 ~ 1896년 2월</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>인물을 쓰는데 문벌 및 지벌에 구애되지 말고, 선비를 두루 구하여 널리 인재를 등용한다</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>헌의 6조</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>어몽룡의 월매도</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>조선전기: 16세기,사림의 문화가 반영됨</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>『산림경제』는 숙종 때 실학자 홍만선이 저술한 농서 겸 가정생활서이다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>정선의 인왕제색도</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>조선후기: 1751년</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>지방의 군현제가 폐지되고 전국을 23부로 나누었다</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>을미개혁</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>무위사 극락전</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>조선전기: 15세기 세종</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>우리나라는 본래부터 명분을 중히 여겼다. 양반은 아무리 심한 곤란과 굶주림을 받더라도 팔짱끼고 편하게 앉아 농사를 짓지 않는다. 간혹 실업에 힘써서 몸소 천한 일을 달갑게 여기는 자가 있으면, 모두들 나무라고 비웃기를 종처럼 무시하니, 자연히 노는 백성은 많아지고 생산하는 자는 줄어든다. 재물이 어찌 궁하지 않을 수 있으며, 백성이 어찌 가난하지 않을 수 있겠는가? 과목별로 조항을 엄격히 세워야 마땅할 것이다. 그 중에서 사농공상에 관계없이 놀고먹는 자는 관에서 벌칙을 마련하여 세상에 용납할 수 없게 해야 한다</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>박제가</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>『색경』은 숙종 때 실학자 박세당이 저술한 농서이다</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>허목</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>해인사 장경판전</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>조선전기: 15세기 성종</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>문벌폐지, 신분제 폐지, 과부의 재가 허용, 칠반천인(신량역천) 처우 개선 등이 수용되었다</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조: 1894년 동학농민운동</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>법주사 팔상전</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>조선후기: 17세기 인조</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>정선의 인왕제색도</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>조선후기: 1751년</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>『산림경제』는 숙종 때 실학자 홍만선이 저술한 농서 겸 가정생활서이다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1880년대 홍재학은 ‘만언척사소’를 올려 개화 반대와 서양 문물 및 서적을 불태울 것을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>이정의 풍죽도</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>조선전기: 16세기,사림의 문화가 반영됨</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>칙임관은 대황제 폐하가 정부에 자문해서 과반수의 찬성에 따라 임명한다</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>황국협회</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>독립협회</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재 등이 국문연구소(1907)의 뒤를 이은 조선어 연구회(1921)를 조직하였다</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>이병도, 손진태</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>의정부와 6조 외의 불필요한 관청은 모두 없앤다</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조: 갑신정변, 1884년</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>20230308</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23시 05분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3001,14 +3001,464 @@
           <t>개혁 정강 14조: 갑신정변, 1884년</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>20230308</t>
-        </is>
+      <c r="D103" t="n">
+        <v>20230308</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>23시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>『산림경제』는 숙종 때 실학자 홍만선이 저술한 농서 겸 가정생활서이다</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>『색경』(1676)은 조선 숙종 때  박세당이 지은 농서로, 농가에서의 필수적인 상식이 정리되어 있다</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>재정 일원화 : 헌의6조</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>탁지부</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>무위사 극락전</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>조선전기: 15세기 세종</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>이정의 풍죽도</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>조선전기: 16세기,사림의 문화가 반영됨</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>대한제국은 1902년 이범윤을 간도시찰원으로 파견하였다</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>이중하</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>이범윤</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>07시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>문벌폐지, 신분제 폐지, 과부의 재가 허용, 칠반천인(신량역천) 처우 개선 등이 수용되었다</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조: 1894년 동학농민운동</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>의정부와 6조 외의 불필요한 관청은 모두 없앤다</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조: 갑신정변, 1884년</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>해인사 장경판전</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>조선전기: 15세기 성종</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>법주사 팔상전</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>조선후기: 17세기 인조</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재 등이 국문연구소(1907)의 뒤를 이은 조선어 연구회(1921)를 조직하였다</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>이병도, 손진태</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>『산림경제』는 숙종 때 실학자 홍만선이 저술한 농서 겸 가정생활서이다</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>신속</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>해인사 장경판전</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>조선전기: 15세기 성종</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>역대 임금의 초상화를 봉안하던 선원전이 있었다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>경희궁</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>창덕궁</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>이항로는 척화주전론을 주장하며 통상 반대 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>최익현</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>이정의 풍죽도</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>조선전기: 16세기,사림의 문화가 반영됨</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>정선의 인왕제색도</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>조선후기: 1751년</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>『과농소초(1799)』는 조선 정조 때 박지원이 편찬한 농서로, 중국 농법의 도입과 재래 농사 기술의 개량 등을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>20230311</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3451,14 +3451,414 @@
           <t>박지원</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>20230311</t>
-        </is>
+      <c r="D121" t="n">
+        <v>20230311</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>역대 임금의 초상화를 봉안하던 선원전이 있었다</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>경복궁</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>창덕궁</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>17시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>논산 관촉사 석조 미륵보살 입상 건립(968)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>태조</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>광종</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>17시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>웅기 굴포리 서포항 유적</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>17시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>법주사 팔상전</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>조선후기: 17세기 인조</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>17시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>향리 제도 마련(지방 세력 견제)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>17시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>문벌폐지, 신분제 폐지, 과부의 재가 허용, 칠반천인(신량역천) 처우 개선 등이 수용되었다</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조: 1894년 동학농민운동</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>17시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>정선의 인왕제색도</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>조선후기: 1751년</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>17시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>『산림경제』는 숙종 때 실학자 홍만선이 저술한 농서 겸 가정생활서이다</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>유수원</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>17시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>충남 공주 석장리</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>17시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>과거제를 정비하고 과거 출신자 우대 ⇒ 유학에 조예가 깊은 인재들의 정치 참여 유도</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>광종</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>17시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>자유 상공업 발전을 꾀한다는 명분으로 보부상 단체인 상리국을 폐지하였다</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>대한국국제</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>국자감(최고 교육 기관) 설치</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>태조</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>17시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>한양을 남경으로 승격(동경 ⇒ 남경 중시)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>17시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>귀주 대첩 : 강감찬이 귀주에서 거란 장수 소배압의 침입을 격파(1019)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>목종</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>17시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2성 6부 완성 : 성종 대에 틀을 마련한 2성 6부의 중앙 통치 제도 완성</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>중추원 · 삼사(송 관제 모방) 설치</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>태조</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>20230322</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3851,14 +3851,2665 @@
           <t>성종</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>20230322</t>
-        </is>
+      <c r="D137" t="n">
+        <v>20230322</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>제네바 기본 합의서</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">박정희 </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>김영삼 : 1994, 경수로 건설 지원, NPT(핵무기 금지 조약)잔류, 핵 안정 협정 이행</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>하늘에 제사를 지내던 단</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>장충단</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>원구단</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>왕의 명령으로 서울 전동의 전의감(典醫監) 건물을 개수한 후 우정총국 청사 건물로 사용하였다</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>백낙신</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>06시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>러시아, 미국, 일본은 같은 오랑캐입니다. 그들 사이에 누구는 후하게 대하고, 누구는 박하게 대하기는 어려운 일입니다</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>06시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>그는 신채호의 고대사 연구를 계승 발전시켜 고대 국가의 사회 발전 단계를 해명하는 많은 논문을 발표하여 해방 후 『조선상고사감』이라는 단행본을 엮어냈고, 우리나라의 전통 철학을 정리하여 『불함철학대전』과 『조선철학』을 저술하였다. 또한 ‘신민족주의와 신민주주의’라는 독창적인 이론을 제시하고, 이에 의거하여 극좌와 극우를 배격하고 만민공생의 통합된 민족 국가를 건설하려 하였다</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>정인보</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>안재홍</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>서양의 제도를 바탕으로 의정부 산하의 6조를 8아문으로 개편하고 아문에 행정권을 배분한 것은 제1차 갑오개혁에 해당한다</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>양양 오산리 유적</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>조개껍데기 가면</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>토제 인면(人面)상</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>건국 준비 위원회 부위원장이었던 안재홍이 중도 우파 성향의 국민당(1945)을 창당하였다. 이후 1947년 미군정에서 민정 장관을 역임했다</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>손진태</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>안재홍</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>07시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>지방 관제를 빨리 개정하여 지방 관리의 직권을 제한한다</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>김대문</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>계월필경</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>화랑세기</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>독립협회는 만민 공동회와 관민 공동회를 개최하여 헌의 6조를 결의하였으며, 중추원을 의회식으로 개편하는 관제를 반포하였다.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>독립신문</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>독립협회</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>『색경』(1676)은 조선 숙종 때  박세당이 지은 농서로, 농가에서의 필수적인 상식이 정리되어 있다</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>한민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김대중 </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>노태우 : 1989, 자주, 평화, 민주의 원칙 아래 통일 민주 공화국 구성 제안</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>『과농소초(1799)』는 조선 정조 때 박지원이 편찬한 농서로, 중국 농법의 도입과 재래 농사 기술의 개량 등을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>신속</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>『농가집성(1655)』은 조선 효종 때 신속이 왕명을 받아 간행한 농서로, 조선 전기의 『농사직설』, 『금양잡록』, 『사시찬요초』와 부록으로 16세기의 『구황촬요』까지 모두 합하여 편찬하였다</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>이수광</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>신속</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>지방에 진위대를 설치하고, 건양이라는 연호를 제정하였다</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>광무개혁</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>을미개혁: 1895년 월 ~ 1896년 2월</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>서궐인 경희궁은 본래 경덕궁으로 불리었고 광해군 때 건설되었다. 경복궁이 중건되기 전까지 조선 후기의 이궁(離宮) 역할을 담당하였으며, 영조 때 경희궁으로 명칭이 바뀌었다</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>창덕궁</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>경희궁</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>박은식은 『한국통사』, 『한국독립운동지혈사』를 저술하여 한국 독립운동사를 정리하였다</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>문일평</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>박은식</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>자유시 참변 이후 소련에서 탈출한 김좌진을 중심으로 대종교 인사들은 북만주 일대에 신민부(1925)를 결성하였다</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>통의부</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>신민부</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>불교 융성 차원에서 귀법사(주지 균여)와 홍화사 창건</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>광종</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>07시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>정인보는 민족 정신으로 ‘얼’을 강조하였고 실학 연구에 치중한 조선학 운동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>정인보</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>07시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>동궐인 창덕궁은 조선 태종 때 건립되었다</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>경복궁</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>창덕궁</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>08시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>『색경』은 숙종 때 실학자 박세당이 저술한 농서이다</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>08시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>의열단은 임시정부 요인과 제휴하여 투탄 계획을 추진하기도 하였다</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>노인 동맹단</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>08시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>8도 23부 개편</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>을미개혁</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>08시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>『산림경제』는 숙종 때 실학자 홍만선이 저술한 농서 겸 가정생활서이다</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>08시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>균여는 화엄사종을 중심으로 북악의 법통을 계승한 뒤 남악까지 통합하였다</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>08시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>나라라 하는 것은 사람을 두고 이름이니, 만일 빈 강산에 초목금수만 있고 해와 달만 내왕하는 곳이면 어찌 나라라고 칭하리오. 그러므로 사람이 토지에 의거하여 나라를 세울 때 임금과 정부와 백성이 동심 합력하여 나라를 세웠나니, …… 백성의 권리로 나라가 된다고 말하는 것이요. …… 해외 강국이 와서 나라를 빼앗는데 종묘사직과 임금과 나라 이름을 그대로 두고 사람의 권리와 토지 이익만 가져가고 또 총명 강대한 백성을 옮겨다 가두고 주장을 하나니, …… 관민이 합심하여 정부와 백성의 권리가 절반씩 함께 한 후에야 대한이 억만 년 무강할 줄로 나는 아노라.     -1898. 12. 15</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>독립신문</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>독립협회: 관민공동회 박성춘 연설</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>08시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>영통사에서 해동고승전을 편찬했다</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>혜현</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>각훈</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>08시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>외국인에게 의지하지 말고 관리와 백성들이 마음을 함께하고 힘을 합쳐 전제 황권을 굳건히 한다</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>황국협회</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>독립협회</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>08시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>정선의 인왕제색도</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>조선후기: 1751년</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>08시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>환곡미 폐지를 발표하였다</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조: 갑신정변, 1884년</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>08시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>김대문</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>외교문서 작성</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>악본</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>08시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>7·7선언</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">박정희 </t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>노태우 : 1988, 북한, 구소련과 중국 및 동구권 국가들과 교류</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>08시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>(백제) 고구려에서 망명, 열반종 개창</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>보우</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>보덕</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>08시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>대상인의 지역사회 공헌(학교교량 건설, 국방담당), 상인간의 합자, 상업활동 국가가 통제</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>유수원</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>08시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>해심밀경소 저술 -&gt; 법상종 성립에 기여</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>원측</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>8도의 행정 구역을 23부로 개편하고 부 ‧ 목 ‧ 군 ‧ 현 등의 명칭을 ‘군’으로 통일하여 337군으로 개편하였다</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>을미개혁</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>08시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>문일평은 ‘조선심’의 개념을 중시하고 정인보, 안재홍 등과 함께 조선학 운동을 펼쳤다</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>정인보</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>문일평</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>08시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>군국기무처는 제1차 갑오개혁을 이끈 초정부적인 회의 기구로, 개혁에 관한 모든 사무를 관장하였다. 군국기무처가 심의ㆍ통과시킨 의안은 국왕의 재가를 거쳐 국법으로 시행되었다. 1894년 7월부터 같은 해 12월까지 존속하였는데, 총재는 영의정 김홍집이 겸임하고, 부총재는 내아문독판으로 회원인 박정양이 겸임하였다</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>대한국국제</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>08시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>양세봉이 이끈 조선 혁명군은 중국 의용군과 연합하여 영릉가 전투와 흥경성 전투 등에서 일본군을 크게 물리쳤다</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>08시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>연천 전곡리 유적</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>결부제 대신 경무법(수확량 대신 토지 면적으로 세금 부과)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>08시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>금본위제 시행: 광무개혁 때 시도하였으나 실패, 화폐정리사업 때 시행</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>광무개혁: 1897년</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>성호사설(백과전서), 영조, 다른 문명, 다른 사상, 자주적 역사간 모두 언급-&gt;가치의 다원화</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>이긍익</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>이익</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>08시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>향리의 직책을 9등급으로 간소화</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>혜종</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>08시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>원각사 설립</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1897년</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1908년</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>08시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1860년대: 통상 반대 운동은 기정진, 이항로가 전개하였다</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>박정양, 어윤중</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>기정진, 이항로</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>09시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>국문연구소 설립</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1908년</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1907년</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>09시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>실학에서 자주적인 근대 사상과 우리 학문의 주체성을 찾으려 하였다</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>박정양, 어윤중, 홍영식</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>정인보, 문일평, 안재홍</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>논산 관촉사 석조 미륵보살 입상 건립(968)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>태조</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>광종</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>원각사</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1899년</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1908년</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>한전론, 영업전, 최소한도의 토지는 매매 금지(영업전 법으로 매매 금지)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>이익</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>「여유당전서」 조선 후기의 학자 정약용의 저술을 총정리한 문집으로 정인보, 문일평, 안재홍 등이 발간하였다</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>박정양, 어윤중, 홍영식</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>정인보, 문일평, 안재홍</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>09시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>중국 관내 최초의 한인 무장 부대로, 중국 국민당 정부의 지원을 받았다</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>09시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>러시아, 미국, 일본은 같은 오랑캐입니다. 그들 사이에 누구는 후하게 대하고, 누구는 박하게 대하기는 어려운 일입니다</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>이항로</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>09시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>청방인문표</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>김대문</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>강수</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>09시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>한산기</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>최치원</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>김대문</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>09시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>경복궁 건청궁에 처음으로 전등이 가설되었다</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1895년</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1887년</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>09시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>3단계</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">노태우 </t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>김영삼 : 1993, 화해 협력, 남북 연합, 통일 국가</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>09시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>청 나라에 의존하는 생각을 끊어버리고 자주 독립의 터전을 튼튼히 세운다</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>09시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>242개 사원 남기고 나머지는 폐지</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>세조</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>태종</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재 등이 국문연구소(1907)의 뒤를 이은 조선어 연구회(1921)를 조직하였다</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>이윤재, 이병도</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>장지영, 이윤재</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>09시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>부세 완화, 서얼 허통 방지, 호포제 반대를 주장하였다</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>허목</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>09시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>박은식은 1919년 대한국민노인동맹단을 조직하고 지도자로 활약하였다. 이 단체의 대표적 인물로는 일제 총독 사이토에 폭탄 투척 의거를 한 강우규 의사가 있다</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>백남운</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>박은식</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>이봉창은 도쿄에서 일왕 히로히토를 향해 수류탄을 던졌으나 성공하지 못하였다</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>윤봉길</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>이봉창</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>09시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1890년대: 항일 의병 운동인 을미의병의 대표 인물은 유인석, 기우만 등이다</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>박정양, 어윤중</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>유인석, 기우만</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>09시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>『주례』에 나타난 주나라 제도를 모범으로 하여 중앙과 지방의 정치 제도를 개혁해야 한다. 정치적 실권을 군주에게 몰아주고, 군주가 수령을 매개로 민을 직접 다스리도록 하되, 민의 자주권을 최대로 보장하여 아랫사람이 통치자를 추대하는 형식에 의하여 권력이 짜여져야 한다</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>정약용</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>교육입국조서를 발표하며, 이후 사범학교, 외국어 학교, 소학교, 중학교 등이 설립되었다</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>대한국국제</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>09시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>『산림경제』는 조선 숙종 때 홍만선이 편찬하였으며, 수명 연장 등의 일상 생활과 농업·입업·축산업·식품가공 등 농촌 생활과 관련된 광범위한 사항을 기술한 책이다</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>신속</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>당으로 유학가 현장의 제자가 됨</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>자장</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>원측</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1920년 의열단 소속 박재혁은 부산 경찰서에 폭탄을 던져 공격하였다</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>김지섭</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>박재혁</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>7·4 남북 공동 성명</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김대중 </t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>박정희 : 1972, 자주·평화·민족 대단결, 남북 조절 위원회 설치 합의, 직통 전화 개설</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>제3조 진위는 부(府) 혹은 군(郡)의 중요한 지방에 주둔하여 지방 진무와 변경 수비를 전적으로 맡는다</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>을미개혁: 1895년 ~ 1896년</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>○ 종래의 조선 농학과 박물학을 집대성하였다
+○ 전국 주요 지역에 국가 시범 농장인 둔전을 설치하여 혁신적 농법과 경영 방법으로 수익을 올려서 국가 재정을 보충할 것을 제안했다</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>유몽인</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>서유구</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>환곡 개선</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>한치윤</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>이익</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>10시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>제주 고산리 유적</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>토제 인면(人面)상</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>덧무늬 토기</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>20시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>한국 독립군이 한·중 연합작전으로 동경성에서 승리하였다</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>독립 의군부</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>20시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>한국 독립군이 한·중 연합작전으로 동경성에서 승리하였다</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>혜상공국을 없앨 것</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조: 갑신정변, 1884년</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>20시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>판문점 남북 연락 사무소 설치</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">박정희 </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>노태우 : 1991, 남북 기본 합의서</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>16시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>유물사관의 입장에서 한국사를 연구하였다</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>이윤재, 이병도</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>백남운, 이청원</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>16시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>속장경</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>대장도감 간행</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>교장도감 간행</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>교육입국 조칙이 발표되었고(1895.2) 한성사범학교와 한성외국어학교 등 관립학교들이 개교되었다</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>광무개혁</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>답설인귀서</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>설총</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>강수</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>17시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>진단 학회는 청구 학회의 한국사 왜곡에 맞서 이윤재, 이병도 등이 조직한 것으로, 『진단학보』를 발행하고 객관적인 연구 활동을 전개하였다</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>백남운, 이청원</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>이윤재, 이병도</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>17시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>외교문서 작성</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>최치원</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>강수</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>17시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>양전 사업을 실시하고 근대적인 토지 문서인 지계를 발급하였던 것은 1897년부터 실시한 대한 제국 때 광무개혁의 내용이다</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>대한국국제</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>광무개혁: 1897년</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>17시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>지구 구체설까지만 언급</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>최한기</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>이익</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>17시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>건국 준비 위원회 부위원장이었던 안재홍이 중도 우파 성향의 국민당(1945)을 창당하였다. 이후 1947년 미군정에서 민정 장관을 역임했다</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>문일평</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>안재홍</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>17시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>일제와의 최혜국 대우와 무관세 조항이 함께 명문화되면서 불평등 무역이 조장되었다</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>조일무역규칙</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>조일통상장정: 1883년 7월</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>17시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>단양 상시리 바위그늘</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>한반도 최초의 인류 화석 발굴</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>남한 최초 인골화석 발견</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>17시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>개인의 소승적 해탈 중시</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>백제, 신라</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>백제</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>17시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>해인사 묘길상 탑</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>김대문</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>최치원</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>17시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>사륙집</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>강수</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>최치원</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>17시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>지청천이 이끄는 군대로, 항일 중국군과 함께 쌍성보 전투, 동경성 전투 등에서 일본군을 격퇴하였다</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>대한 독립군</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>17시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>우리나라는 본래부터 명분을 중히 여겼다. 양반은 아무리 심한 곤란과 굶주림을 받더라도 팔짱끼고 편하게 앉아 농사를 짓지 않는다. 간혹 실업에 힘써서 몸소 천한 일을 달갑게 여기는 자가 있으면, 모두들 나무라고 비웃기를 종처럼 무시하니, 자연히 노는 백성은 많아지고 생산하는 자는 줄어든다. 재물이 어찌 궁하지 않을 수 있으며, 백성이 어찌 가난하지 않을 수 있겠는가? 과목별로 조항을 엄격히 세워야 마땅할 것이다. 그 중에서 사농공상에 관계없이 놀고먹는 자는 관에서 벌칙을 마련하여 세상에 용납할 수 없게 해야 한다</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>일본이 황무지 개간을 구실로 토지를 약탈하려 하자 대중적 반대 운동을 벌였다</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>대한자강회</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>보안회</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>이긍익은 400여 종의 야사, 일기, 문집류 등을 참고하여 조선 정치와 문화사를 정리한 『연려실기술』을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>이긍익</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>영농방법의 혁신, 상업적농업, 농기구, 수리시설</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>자장 통도사</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>법성종</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>계율종</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>은광 개발, 화폐 유통, 선박과 수레 사용 등을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>허목</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>유몽인</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>내시부를 없애고 그 가운데서 재능있는 자가 있으면 뽑아 쓴다</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>홍범14조</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조: 갑신정변, 1884년</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁 때 신식 화폐 장정을 반포하여 은본위제를 채택하였다</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>대한국국제</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>중국식 문산계를 사용하여 문반과 무반에게 문산계 수여(성종 이후 정식 수용)</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>광종</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>황해도 해주 출신으로 1895년 천주교에 입교하여 세례명(토마스)를 받은 인물은 안중근이다</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>안중근</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>20230328</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>18시 04분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6502,14 +6502,164 @@
           <t>안중근</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>20230328</t>
-        </is>
+      <c r="D243" t="n">
+        <v>20230328</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
           <t>18시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>해인사 묘길상 탑</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>설총</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>최치원</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>08시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>내시부를 없애고 그 가운데서 재능있는 자가 있으면 뽑아 쓴다</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조: 갑신정변, 1884년</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>08시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>한국 독립군이 한·중 연합작전으로 동경성에서 승리하였다</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>조선 의용군</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>08시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>이긍익은 400여 종의 야사, 일기, 문집류 등을 참고하여 조선 정치와 문화사를 정리한 『연려실기술』을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>유수원</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>이긍익</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>09시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>양세봉이 이끈 조선 혁명군은 중국 의용군과 연합하여 영릉가 전투와 흥경성 전투 등에서 일본군을 크게 물리쳤다</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>09시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>업설과 미륵불 신앙 발달</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>고구려</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>신라</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>09시 10분</t>
         </is>
       </c>
     </row>
